--- a/BY.X BOUTIQUE八月订单.xlsx
+++ b/BY.X BOUTIQUE八月订单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D63A0-58D0-4055-BB4B-60E29C374350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FDB7CA-3AFD-487F-AD83-E45B3E4ADA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
@@ -60,6 +60,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{A958D25C-C727-48E5-BD8A-30DF12FC076F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+未包括运费</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -70,7 +96,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{3B443FE4-AA61-4CE5-ABAE-2F95AA4DE2E4}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{3B443FE4-AA61-4CE5-ABAE-2F95AA4DE2E4}">
       <text>
         <r>
           <rPr>
@@ -96,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{53D9FEC6-D1BB-4E93-A42E-D14C1581FC89}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{53D9FEC6-D1BB-4E93-A42E-D14C1581FC89}">
       <text>
         <r>
           <rPr>
@@ -122,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{0AE59B2E-25C5-4B86-A63F-655B7D0356F5}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{0AE59B2E-25C5-4B86-A63F-655B7D0356F5}">
       <text>
         <r>
           <rPr>
@@ -148,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{B70E59CE-817D-4912-9884-7C1FFA35A115}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{B70E59CE-817D-4912-9884-7C1FFA35A115}">
       <text>
         <r>
           <rPr>
@@ -174,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{AA8BFA47-4FA4-4029-9017-9BAC2F576C41}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{AA8BFA47-4FA4-4029-9017-9BAC2F576C41}">
       <text>
         <r>
           <rPr>
@@ -200,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{776BF61C-598C-4F36-8959-333BAA46518C}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{776BF61C-598C-4F36-8959-333BAA46518C}">
       <text>
         <r>
           <rPr>
@@ -226,7 +252,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{2D463036-5814-4D77-87C4-A3DF581C5C9B}">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{2D463036-5814-4D77-87C4-A3DF581C5C9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{56E35A68-C293-4CD0-9954-F2EAE7B0944D}">
       <text>
         <r>
           <rPr>
@@ -262,56 +314,6 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{E139FDED-AD8D-4C08-BE5D-E2C743B7B260}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-蓝色退款</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{45BDEDF5-97AF-4E7C-A742-7DD4E10F9A93}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M3" authorId="0" shapeId="0" xr:uid="{8ABEFDAF-C918-4139-94DA-20C4BF0A958C}">
       <text>
         <r>
@@ -364,32 +366,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{3C3B4631-1C9F-4821-B99B-5CE00A2FD86E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G6" authorId="0" shapeId="0" xr:uid="{453F7B0C-6E65-42E6-9761-4E87804A3D96}">
       <text>
         <r>
@@ -495,6 +471,58 @@
       </text>
     </comment>
     <comment ref="G9" authorId="0" shapeId="0" xr:uid="{B4D67CF1-2F6C-4BE2-A6E0-A324A5BB579B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{AD9DA73F-9146-41E1-9491-1E4E4171C99A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{67E52238-6801-45F7-84E2-48DDC0586D4F}">
       <text>
         <r>
           <rPr>
@@ -1664,7 +1692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="254">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2353,10 +2381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wx/zfb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>米白色运动鞋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2610,6 +2634,78 @@
   </si>
   <si>
     <t>已预定(二批)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联名款卫衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信/支付宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联名款卫衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝M 黑S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝M 黑S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明+蓝色(退款)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1170820577887302256</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何小姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省 长沙市 雨花区 砂子塘街道 桔园小区一片六栋后面（新塘冲巷189号） ，410007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘1172203361436635119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 南山区 西丽街道 松坪村三期东区快递柜 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1172597635709129831</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省 南通市 崇川区 钟秀街道 城北家园8-2804 ，000000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2624,7 +2720,7 @@
     <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2733,14 +2829,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="等线"/>
@@ -2749,17 +2837,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2809,7 +2899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3149,17 +3239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
@@ -3192,15 +3271,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3258,7 +3328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3475,125 +3545,176 @@
     <xf numFmtId="180" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="31" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3993,10 +4114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF89E5C-CCB9-476F-8234-E85E0F0C37F3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4023,10 +4144,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +4193,7 @@
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>169</v>
@@ -4116,12 +4237,55 @@
         <v>171</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="57">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="53">
+        <v>841</v>
+      </c>
+      <c r="H7" s="7">
+        <v>676</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4130,6 +4294,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4143,6 +4319,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4" location="已下单!A3" display="已下单" xr:uid="{A120DF53-7CA4-420A-9F1D-E5918194AD38}"/>
+    <hyperlink ref="C8" location="已下单!A7" display="已下单" xr:uid="{6B2BF166-1C6D-4AE6-A357-5ED0B287D120}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4152,10 +4329,441 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4099D171-81AE-4A14-95F3-993B63CF8C32}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="93">
+        <v>7.29</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="4">
+        <v>89</v>
+      </c>
+      <c r="H3" s="26">
+        <v>99</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13268011728</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="2">
+        <v>89</v>
+      </c>
+      <c r="H4" s="53">
+        <v>99</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="3">
+        <v>13088830989</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="93">
+        <v>7.31</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="4">
+        <v>89</v>
+      </c>
+      <c r="H5" s="26">
+        <v>99</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="5">
+        <v>15858404276</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="2">
+        <v>89</v>
+      </c>
+      <c r="H6" s="53">
+        <v>99</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="3">
+        <v>15803048656</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="92">
+        <v>8.4</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <v>89</v>
+      </c>
+      <c r="H7" s="26">
+        <v>188</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P7" s="5">
+        <v>18017516029</v>
+      </c>
+      <c r="Q7" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="92"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2">
+        <v>89</v>
+      </c>
+      <c r="H8" s="53">
+        <v>99</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="3">
+        <v>17824899586</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72">
+        <v>8.6</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="4">
+        <v>89</v>
+      </c>
+      <c r="H9" s="26">
+        <v>99</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="P9" s="5">
+        <v>15986698223</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72">
+        <v>8.9</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2">
+        <v>89</v>
+      </c>
+      <c r="H10" s="53">
+        <v>99</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="3">
+        <v>17608440908</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D3:D10)</f>
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E3:E10)</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H3:H10)</f>
+        <v>881</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B11" location="已下单!A4" display="已预定 橘子*5 草莓*3" xr:uid="{8923E899-39CD-4361-BB89-0D200CE5412F}"/>
+    <hyperlink ref="O8" location="Rosé同款发卡!N7" display="朱末" xr:uid="{438D0314-3044-4804-A3A9-BCB1D37FBA22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
+  <dimension ref="A1:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4175,10 +4783,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4223,289 +4831,354 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84">
-        <v>7.29</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="A3" s="51">
+        <v>7.3</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="85">
+        <v>13850120677</v>
+      </c>
+      <c r="P3" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100">
+        <v>7.31</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4">
-        <v>89</v>
-      </c>
-      <c r="G3" s="26">
-        <v>99</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="5">
-        <v>13268011728</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="2">
-        <v>89</v>
-      </c>
-      <c r="G4" s="53">
-        <v>99</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="3">
-        <v>13088830989</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>90</v>
+      <c r="E4" s="10"/>
+      <c r="F4" s="4">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F4+10</f>
+        <v>39</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="5">
+        <v>15065175333</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84">
-        <v>7.31</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4">
-        <v>89</v>
-      </c>
-      <c r="G5" s="26">
-        <v>99</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="5">
-        <v>15858404276</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>117</v>
+      <c r="A5" s="101"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="85">
+        <v>13983753292</v>
+      </c>
+      <c r="P5" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="87" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="98">
+        <v>8.4</v>
+      </c>
+      <c r="B6" s="97"/>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="2">
-        <v>89</v>
-      </c>
-      <c r="G6" s="53">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6+10</f>
+        <v>68</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="3" t="s">
-        <v>121</v>
+      <c r="M6" s="50"/>
+      <c r="N6" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="O6" s="3">
-        <v>15803048656</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>118</v>
+        <v>13691703210</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83">
-        <v>8.4</v>
-      </c>
-      <c r="B7" s="88"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="4">
-        <v>89</v>
-      </c>
-      <c r="G7" s="26">
-        <v>188</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="4">
+        <f>F7</f>
+        <v>29</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="38"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="5" t="s">
-        <v>193</v>
+      <c r="M7" s="44"/>
+      <c r="N7" s="68" t="s">
+        <v>204</v>
       </c>
       <c r="O7" s="5">
-        <v>18017516029</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>191</v>
+        <v>17824899586</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="2">
-        <v>89</v>
-      </c>
-      <c r="G8" s="53">
-        <v>99</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="2">
+        <f>F8+10</f>
+        <v>68</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="69" t="s">
-        <v>195</v>
+      <c r="M8" s="50"/>
+      <c r="N8" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="O8" s="3">
-        <v>17824899586</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>197</v>
+        <v>18940928096</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73">
-        <v>8.6</v>
-      </c>
-      <c r="B9" s="88"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="4">
-        <v>89</v>
-      </c>
-      <c r="G9" s="26">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="G9" s="4">
+        <f>F9+10</f>
+        <v>39</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="5" t="s">
-        <v>228</v>
+      <c r="M9" s="44"/>
+      <c r="N9" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="O9" s="5">
-        <v>15986698223</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D3:D9)</f>
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G3:G8)</f>
-        <v>683</v>
+        <v>15005373400</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="100">
+        <v>8.1</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="120">
+        <v>1</v>
+      </c>
+      <c r="E10" s="121"/>
+      <c r="F10" s="120">
+        <v>29</v>
+      </c>
+      <c r="G10" s="120">
+        <f>F10+10</f>
+        <v>39</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="O10" s="126">
+        <v>13189775178</v>
+      </c>
+      <c r="P10" s="127" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q10" s="128" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="101"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4">
+        <f>F11+10</f>
+        <v>39</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O11" s="5">
+        <v>13358070826</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G3:G11)</f>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4518,387 +5191,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B10" location="已下单!A4" display="已预定 橘子*5 草莓*3" xr:uid="{8923E899-39CD-4361-BB89-0D200CE5412F}"/>
-    <hyperlink ref="N8" location="Rosé同款发卡!N7" display="朱末" xr:uid="{438D0314-3044-4804-A3A9-BCB1D37FBA22}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="74.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
-        <v>7.3</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2">
-        <v>39</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O3" s="3">
-        <v>13850120677</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92">
-        <v>7.31</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4">
-        <f>F4+10</f>
-        <v>39</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="5">
-        <v>15065175333</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2">
-        <f>F5+10</f>
-        <v>39</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="3">
-        <v>13983753292</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90">
-        <v>8.4</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="2">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2">
-        <f>F6+10</f>
-        <v>68</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="O6" s="3">
-        <v>13691703210</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4">
-        <f>F7</f>
-        <v>29</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="O7" s="5">
-        <v>17824899586</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2">
-        <f>F8+10</f>
-        <v>68</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="O8" s="3">
-        <v>18940928096</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q8" s="70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4">
-        <f>F9+10</f>
-        <v>39</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" s="5">
-        <v>15005373400</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10">
-        <f>SUM(D3:D9)</f>
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G3:G9)</f>
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B10" location="已下单!A4" display="已预定 透明*10个" xr:uid="{8C61281C-C6A4-463D-B77B-C66DAC454F7A}"/>
+    <hyperlink ref="B12" location="已下单!A4" display="已预定 透明*10个" xr:uid="{8C61281C-C6A4-463D-B77B-C66DAC454F7A}"/>
     <hyperlink ref="N7" location="Lisa同款发卡!N8" display="朱末" xr:uid="{7A39DB58-13B5-4F46-AAF5-9F4F32DE955A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4913,7 +5206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4934,18 +5227,18 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>9</v>
@@ -4994,10 +5287,10 @@
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92">
+      <c r="A3" s="100">
         <v>7.29</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5035,8 +5328,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
@@ -5072,8 +5365,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
@@ -5109,10 +5402,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104">
+      <c r="A6" s="112">
         <v>7.3</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
@@ -5148,8 +5441,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5185,8 +5478,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -5222,8 +5515,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="105"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
@@ -5259,8 +5552,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -5296,8 +5589,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
@@ -5333,8 +5626,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -5370,8 +5663,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
@@ -5407,8 +5700,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -5444,8 +5737,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
@@ -5481,8 +5774,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
@@ -5518,8 +5811,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
@@ -5556,23 +5849,23 @@
     </row>
     <row r="18" spans="1:19" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="76">
+        <v>234</v>
+      </c>
+      <c r="D18" s="75">
         <f>SUM(D3:D17)</f>
         <v>1</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="75">
         <f>SUM(E3:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="75">
         <f>SUM(F3:F17)</f>
         <v>14</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76">
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75">
         <f>SUM(I3:I17)</f>
         <v>2670</v>
       </c>
@@ -5584,7 +5877,7 @@
     </row>
     <row r="19" spans="1:19" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:19" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="97">
+      <c r="A20" s="105">
         <v>7.3</v>
       </c>
       <c r="B20" s="55" t="s">
@@ -5625,7 +5918,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
+      <c r="A21" s="106"/>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -5661,7 +5954,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="97">
+      <c r="A22" s="105">
         <v>7.31</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -5699,7 +5992,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="106"/>
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
@@ -5735,7 +6028,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
+      <c r="A24" s="106"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
@@ -5771,7 +6064,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
+      <c r="A25" s="106"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -5807,7 +6100,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99">
+      <c r="A26" s="107">
         <v>8.1</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -5845,7 +6138,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
+      <c r="A27" s="108"/>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
@@ -5881,7 +6174,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
+      <c r="A28" s="108"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -5917,7 +6210,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
+      <c r="A29" s="108"/>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
@@ -5953,7 +6246,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="94">
+      <c r="A30" s="102">
         <v>8.1999999999999993</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -5991,7 +6284,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96"/>
+      <c r="A31" s="104"/>
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
@@ -6027,7 +6320,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
+      <c r="A32" s="104"/>
       <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
@@ -6063,7 +6356,7 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="96"/>
+      <c r="A33" s="104"/>
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
@@ -6099,7 +6392,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="94">
+      <c r="A34" s="102">
         <v>8.3000000000000007</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -6137,7 +6430,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
+      <c r="A35" s="104"/>
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -6173,7 +6466,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
+      <c r="A36" s="104"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
@@ -6209,7 +6502,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
+      <c r="A37" s="104"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
@@ -6245,7 +6538,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="96"/>
+      <c r="A38" s="104"/>
       <c r="C38" s="4" t="s">
         <v>162</v>
       </c>
@@ -6281,7 +6574,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
+      <c r="A39" s="104"/>
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
@@ -6311,7 +6604,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
+      <c r="A40" s="104"/>
       <c r="C40" s="60"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
@@ -6333,7 +6626,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
+      <c r="A41" s="104"/>
       <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
@@ -6350,20 +6643,20 @@
         <v>178</v>
       </c>
       <c r="P41" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q41" s="3">
         <v>13552149519</v>
       </c>
       <c r="R41" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S41" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="94">
+      <c r="A42" s="102">
         <v>8.4</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -6394,16 +6687,16 @@
         <v>17754019761</v>
       </c>
       <c r="R42" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S42" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95"/>
+      <c r="A43" s="103"/>
       <c r="C43" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
@@ -6424,16 +6717,16 @@
       <c r="N43" s="17"/>
       <c r="O43" s="48"/>
       <c r="P43" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q43" s="3">
         <v>13319639624</v>
       </c>
       <c r="R43" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S43" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6462,23 +6755,23 @@
       <c r="N44" s="20"/>
       <c r="O44" s="49"/>
       <c r="P44" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q44" s="5">
         <v>13685035969</v>
       </c>
       <c r="R44" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S44" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="71">
         <v>8.6</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -6496,63 +6789,63 @@
       <c r="N45" s="17"/>
       <c r="O45" s="48"/>
       <c r="P45" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q45" s="3">
         <v>59810618</v>
       </c>
       <c r="R45" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="S45" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="T45" t="s">
         <v>225</v>
       </c>
-      <c r="S45" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="T45" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="46" spans="1:20" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="D46" s="76">
+      <c r="C46" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="75">
         <f>SUM(D20:D44)</f>
         <v>1</v>
       </c>
-      <c r="E46" s="76">
+      <c r="E46" s="75">
         <f>SUM(E20:E44)</f>
         <v>2</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="75">
         <f>SUM(F20:F44)</f>
         <v>21</v>
       </c>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76">
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75">
         <f>SUM(I20:I44)</f>
         <v>4272</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="76">
+      <c r="C48" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="75">
         <f>D18+D46</f>
         <v>2</v>
       </c>
-      <c r="E48" s="76">
+      <c r="E48" s="75">
         <f>E18+E46</f>
         <v>2</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="75">
         <f>F18+F46</f>
         <v>35</v>
       </c>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76">
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75">
         <f>I18+I46</f>
         <v>6942</v>
       </c>
@@ -6598,7 +6891,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6664,7 +6957,7 @@
         <v>23</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6705,13 +6998,13 @@
         <v>7.3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="16">
         <v>1700</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6719,10 +7012,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>167</v>
@@ -6738,38 +7031,38 @@
       <c r="I3" s="20">
         <v>270</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="20"/>
+      <c r="K3" s="47">
         <v>0</v>
       </c>
-      <c r="K3" s="47"/>
       <c r="L3" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="79">
+      <c r="O3" s="78">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P3" s="77" t="s">
-        <v>184</v>
+      <c r="P3" s="76" t="s">
+        <v>183</v>
       </c>
       <c r="Q3" s="16">
         <v>2533</v>
       </c>
-      <c r="R3" s="78" t="s">
-        <v>234</v>
+      <c r="R3" s="77" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107">
+      <c r="A4" s="115">
         <v>8.4</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -6778,10 +7071,10 @@
       <c r="G4" s="2">
         <v>321</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="116">
         <v>123500</v>
       </c>
-      <c r="I4" s="110">
+      <c r="I4" s="118">
         <v>731</v>
       </c>
       <c r="J4" s="41"/>
@@ -6794,15 +7087,15 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="4">
         <v>8</v>
@@ -6811,8 +7104,8 @@
       <c r="G5" s="4">
         <v>683</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="111"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="20"/>
       <c r="K5" s="47">
         <f>E5*8</f>
@@ -6823,7 +7116,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>8.6999999999999993</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -6855,7 +7148,39 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="80">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <v>841</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="20">
+        <v>676</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="47">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:18" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="13" t="s">
         <v>27</v>
@@ -6871,7 +7196,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6910,6 +7235,7 @@
     <hyperlink ref="B5" location="Lisa同款发卡!A2" display="BlingStar" xr:uid="{F39C35D4-1970-425D-8AF0-5AD2B28DF13A}"/>
     <hyperlink ref="B4" location="Rosé同款发卡!A2" display="BlingStar" xr:uid="{475B49E9-1F82-4D89-BF1C-65E76CC12EFA}"/>
     <hyperlink ref="B6" location="椰奶同款背包!A20" display="BAON" xr:uid="{67AA6460-1DA6-4ABC-B97B-F92A1E0BAF3A}"/>
+    <hyperlink ref="B7" location="订单!A6" display="mlb" xr:uid="{B356F929-95F5-42C5-80BF-2DFB81E460A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BY.X BOUTIQUE八月订单.xlsx
+++ b/BY.X BOUTIQUE八月订单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3490D8-5EF2-46E1-9060-99A3FD9EB7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F77000-7249-492A-B281-FC3CFEF88DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="381">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4155,6 +4155,10 @@
   </si>
   <si>
     <t>共：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9.15支付宝结算转账）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6692,7 +6696,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7427,7 +7431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -8120,7 +8124,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10425,8 +10429,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10931,6 +10935,9 @@
       <c r="V10" s="30">
         <f>SUM(V1:V7)</f>
         <v>1655</v>
+      </c>
+      <c r="W10" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/BY.X BOUTIQUE八月订单.xlsx
+++ b/BY.X BOUTIQUE八月订单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F77000-7249-492A-B281-FC3CFEF88DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65474A0-4798-4862-A1AD-19711B876490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
@@ -966,6 +966,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{F49C21F2-2651-4BB0-B963-2C966E9DAAFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2456,6 +2482,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{410F3FCA-4511-4536-8420-B4A26DDBECEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+8月卖出数量：6
+库存剩余：4</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J11" authorId="0" shapeId="0" xr:uid="{1F343DB5-FD03-4E0A-B4B4-3F7CFE63F8F1}">
       <text>
         <r>
@@ -2643,7 +2696,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4159,6 +4212,25 @@
   </si>
   <si>
     <t>（9.15支付宝结算转账）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY.X BOUTIQUE 月统计.xlsx</t>
+  </si>
+  <si>
+    <t>’1266965030561350380</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王馨笛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林省 长春市 南关区 南岭街道 御翠豪庭尚府11栋3单元1106 ，000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存售卖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4901,7 +4973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5352,6 +5424,15 @@
     <xf numFmtId="183" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5409,6 +5490,30 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5421,33 +5526,36 @@
     <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5481,38 +5589,11 @@
     <xf numFmtId="3" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6010,10 +6091,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6407,10 +6488,10 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="152">
+      <c r="A30" s="155">
         <v>8.31</v>
       </c>
-      <c r="B30" s="154" t="s">
+      <c r="B30" s="157" t="s">
         <v>323</v>
       </c>
       <c r="C30" s="5">
@@ -6441,8 +6522,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="B31" s="155"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="5">
         <v>260</v>
       </c>
@@ -6695,8 +6776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4099D171-81AE-4A14-95F3-993B63CF8C32}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6716,10 +6797,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
@@ -6773,10 +6854,10 @@
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152">
+      <c r="A3" s="155">
         <v>7.29</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="163" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6815,8 +6896,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153"/>
-      <c r="B4" s="161"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="164"/>
       <c r="C4" s="2" t="s">
         <v>89</v>
       </c>
@@ -6853,10 +6934,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152">
+      <c r="A5" s="155">
         <v>7.31</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
@@ -6893,8 +6974,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
@@ -6931,10 +7012,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158">
+      <c r="A7" s="161">
         <v>8.4</v>
       </c>
-      <c r="B7" s="161"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="4" t="s">
         <v>190</v>
       </c>
@@ -6973,8 +7054,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
@@ -7014,7 +7095,7 @@
       <c r="A9" s="94">
         <v>8.11</v>
       </c>
-      <c r="B9" s="161"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="4" t="s">
         <v>89</v>
       </c>
@@ -7080,7 +7161,7 @@
       <c r="A13" s="68">
         <v>8.6</v>
       </c>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="164" t="s">
         <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7122,7 +7203,7 @@
       <c r="A14" s="68">
         <v>8.9</v>
       </c>
-      <c r="B14" s="161"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
@@ -7162,7 +7243,7 @@
       <c r="A15" s="94">
         <v>8.1</v>
       </c>
-      <c r="B15" s="161"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="4" t="s">
         <v>85</v>
       </c>
@@ -7202,7 +7283,7 @@
       <c r="A16" s="94">
         <v>8.14</v>
       </c>
-      <c r="B16" s="161"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
@@ -7239,10 +7320,10 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156">
+      <c r="A17" s="159">
         <v>8.2100000000000009</v>
       </c>
-      <c r="B17" s="161"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="4" t="s">
         <v>190</v>
       </c>
@@ -7282,8 +7363,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="157"/>
-      <c r="B18" s="161"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
@@ -7323,7 +7404,7 @@
       <c r="A19" s="94">
         <v>8.26</v>
       </c>
-      <c r="B19" s="161"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="4" t="s">
         <v>85</v>
       </c>
@@ -7429,10 +7510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7452,10 +7533,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7509,7 +7590,7 @@
       <c r="A3" s="48">
         <v>7.3</v>
       </c>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="171" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -7539,10 +7620,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="166">
+      <c r="A4" s="169">
         <v>7.31</v>
       </c>
-      <c r="B4" s="168"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="4" t="s">
         <v>175</v>
       </c>
@@ -7579,8 +7660,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="168"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="83" t="s">
         <v>220</v>
       </c>
@@ -7608,10 +7689,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="164">
+      <c r="A6" s="167">
         <v>8.4</v>
       </c>
-      <c r="B6" s="168"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="2" t="s">
         <v>198</v>
       </c>
@@ -7648,8 +7729,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="165"/>
-      <c r="B7" s="168"/>
+      <c r="A7" s="168"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="4" t="s">
         <v>175</v>
       </c>
@@ -7686,8 +7767,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
-      <c r="B8" s="168"/>
+      <c r="A8" s="168"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="2" t="s">
         <v>198</v>
       </c>
@@ -7724,8 +7805,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="165"/>
-      <c r="B9" s="168"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="4" t="s">
         <v>175</v>
       </c>
@@ -7762,10 +7843,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="166">
+      <c r="A10" s="169">
         <v>8.1</v>
       </c>
-      <c r="B10" s="168"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="85" t="s">
         <v>175</v>
       </c>
@@ -7802,8 +7883,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="167"/>
-      <c r="B11" s="168"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="4" t="s">
         <v>175</v>
       </c>
@@ -7840,8 +7921,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="167"/>
-      <c r="B12" s="168"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="85" t="s">
         <v>175</v>
       </c>
@@ -7903,7 +7984,7 @@
       <c r="A16" s="101">
         <v>8.19</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="165" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -7945,7 +8026,7 @@
       <c r="A17" s="124">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="2" t="s">
         <v>198</v>
       </c>
@@ -7985,7 +8066,7 @@
       <c r="A18" s="124">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B18" s="163"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="4" t="s">
         <v>198</v>
       </c>
@@ -8025,7 +8106,7 @@
       <c r="A19" s="136">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B19" s="163"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="85" t="s">
         <v>175</v>
       </c>
@@ -8070,6 +8151,68 @@
       <c r="M20">
         <f>SUM(M16:M19)</f>
         <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="151">
+        <v>9.24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4">
+        <f>F22+10</f>
+        <v>39</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="O22" s="5">
+        <v>13043300152</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q22" s="152" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D22)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F22)</f>
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G22)</f>
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <f>SUM(M22)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8083,6 +8226,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8094,7 +8249,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8112,10 +8267,11 @@
     <hyperlink ref="N12" location="Lisa同款发卡!O14" display="陈茜" xr:uid="{82DF5A2F-8973-462F-B837-5067ED2D759C}"/>
     <hyperlink ref="B20" location="已下单!A9" display="已预定 透明*10个" xr:uid="{C07CD3C5-8D31-441D-A6DF-0345C2F4DA36}"/>
     <hyperlink ref="N18" location="订单!N38" display="赵灵菲" xr:uid="{A2187B1D-DBCE-42EF-B8DC-39CD05960ECA}"/>
+    <hyperlink ref="B23" r:id="rId1" display="已预定 透明*10个" xr:uid="{4BD70F4C-02C1-4F1C-9EAF-565B8F74B2E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8123,8 +8279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51601B0-3712-47C2-85B5-C075AE00B9D9}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8144,10 +8300,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8197,10 +8353,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166">
+      <c r="A3" s="169">
         <v>8.31</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="165" t="s">
         <v>346</v>
       </c>
       <c r="C3" s="4"/>
@@ -8237,8 +8393,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167"/>
-      <c r="B4" s="163"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85">
         <v>1</v>
@@ -8275,7 +8431,7 @@
       <c r="A5" s="142">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B5" s="163"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>1</v>
@@ -8330,7 +8486,7 @@
       <c r="A12" s="124">
         <v>8.31</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="165" t="s">
         <v>356</v>
       </c>
       <c r="C12" s="4"/>
@@ -8369,7 +8525,7 @@
       <c r="A13" s="145">
         <v>9.15</v>
       </c>
-      <c r="B13" s="163"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>1</v>
@@ -8407,7 +8563,7 @@
       <c r="A14" s="145">
         <v>9.15</v>
       </c>
-      <c r="B14" s="163"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>1</v>
@@ -8529,10 +8685,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="151"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="1" t="s">
         <v>229</v>
       </c>
@@ -8576,10 +8732,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="166">
+      <c r="A3" s="169">
         <v>7.29</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="177" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8615,8 +8771,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167"/>
-      <c r="B4" s="179"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
@@ -8650,8 +8806,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
-      <c r="B5" s="179"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
@@ -8685,10 +8841,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156">
+      <c r="A6" s="159">
         <v>7.3</v>
       </c>
-      <c r="B6" s="179"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
@@ -8722,8 +8878,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="179"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -8757,8 +8913,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
-      <c r="B8" s="179"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -8792,8 +8948,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="179"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
@@ -8827,8 +8983,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
-      <c r="B10" s="179"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -8862,8 +9018,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
-      <c r="B11" s="179"/>
+      <c r="A11" s="179"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
@@ -8897,8 +9053,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
-      <c r="B12" s="179"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -8932,8 +9088,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
-      <c r="B13" s="179"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
@@ -8967,8 +9123,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
-      <c r="B14" s="179"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -9002,8 +9158,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="180"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="179"/>
+      <c r="B15" s="178"/>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
@@ -9037,8 +9193,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="180"/>
-      <c r="B16" s="179"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
@@ -9072,8 +9228,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="157"/>
-      <c r="B17" s="179"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
@@ -9136,7 +9292,7 @@
     </row>
     <row r="19" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:15" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173">
+      <c r="A20" s="172">
         <v>7.3</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -9175,7 +9331,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
+      <c r="A21" s="173"/>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -9209,7 +9365,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173">
+      <c r="A22" s="172">
         <v>7.31</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9245,7 +9401,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
+      <c r="A23" s="173"/>
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
@@ -9279,7 +9435,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
+      <c r="A24" s="173"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
@@ -9313,7 +9469,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
+      <c r="A25" s="173"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -9347,7 +9503,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="175">
+      <c r="A26" s="174">
         <v>8.1</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -9383,7 +9539,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="176"/>
+      <c r="A27" s="175"/>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
@@ -9417,7 +9573,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="176"/>
+      <c r="A28" s="175"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -9451,7 +9607,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="176"/>
+      <c r="A29" s="175"/>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
@@ -9485,7 +9641,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="170">
+      <c r="A30" s="181">
         <v>8.1999999999999993</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -9521,7 +9677,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
+      <c r="A31" s="183"/>
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
@@ -9555,7 +9711,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="172"/>
+      <c r="A32" s="183"/>
       <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
@@ -9589,7 +9745,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="172"/>
+      <c r="A33" s="183"/>
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
@@ -9623,7 +9779,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="170">
+      <c r="A34" s="181">
         <v>8.3000000000000007</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -9659,7 +9815,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="172"/>
+      <c r="A35" s="183"/>
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -9693,7 +9849,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="172"/>
+      <c r="A36" s="183"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
@@ -9727,7 +9883,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="172"/>
+      <c r="A37" s="183"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
@@ -9761,7 +9917,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="172"/>
+      <c r="A38" s="183"/>
       <c r="C38" s="4" t="s">
         <v>162</v>
       </c>
@@ -9795,7 +9951,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="172"/>
+      <c r="A39" s="183"/>
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
@@ -9829,7 +9985,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="172"/>
+      <c r="A40" s="183"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -9847,7 +10003,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
+      <c r="A41" s="183"/>
       <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
@@ -9881,7 +10037,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="170">
+      <c r="A42" s="181">
         <v>8.4</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -9917,7 +10073,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="171"/>
+      <c r="A43" s="182"/>
       <c r="C43" s="2" t="s">
         <v>211</v>
       </c>
@@ -10024,7 +10180,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="169">
+      <c r="A46" s="180">
         <v>8.1999999999999993</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -10060,7 +10216,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="169"/>
+      <c r="A47" s="180"/>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
@@ -10130,7 +10286,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="166">
+      <c r="A49" s="169">
         <v>8.2200000000000006</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -10166,7 +10322,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="167"/>
+      <c r="A50" s="170"/>
       <c r="C50" s="4" t="s">
         <v>34</v>
       </c>
@@ -10387,6 +10543,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A25"/>
@@ -10394,11 +10555,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="A6:A17"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18">
@@ -10429,8 +10585,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10544,7 +10700,7 @@
       <c r="I2" s="17">
         <v>1691</v>
       </c>
-      <c r="J2" s="201">
+      <c r="J2" s="189">
         <v>230</v>
       </c>
       <c r="K2" s="104">
@@ -10581,7 +10737,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196">
+      <c r="A3" s="184">
         <v>8.4</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -10600,13 +10756,13 @@
       <c r="G3" s="4">
         <v>350</v>
       </c>
-      <c r="H3" s="197">
+      <c r="H3" s="185">
         <v>123500</v>
       </c>
-      <c r="I3" s="199">
+      <c r="I3" s="187">
         <v>731</v>
       </c>
-      <c r="J3" s="202"/>
+      <c r="J3" s="190"/>
       <c r="K3" s="103">
         <v>56</v>
       </c>
@@ -10640,7 +10796,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="32" t="s">
         <v>186</v>
       </c>
@@ -10657,9 +10813,9 @@
       <c r="G4" s="2">
         <v>782</v>
       </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="203"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="191"/>
       <c r="K4" s="104">
         <v>48</v>
       </c>
@@ -10852,7 +11008,7 @@
       <c r="I8" s="17">
         <v>3373</v>
       </c>
-      <c r="J8" s="201">
+      <c r="J8" s="189">
         <v>455</v>
       </c>
       <c r="K8" s="104">
@@ -10865,7 +11021,7 @@
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="181">
+      <c r="A9" s="192">
         <v>8.19</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -10878,17 +11034,17 @@
         <v>187</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="2">
         <v>214</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="201">
+      <c r="I9" s="189">
         <v>1352</v>
       </c>
-      <c r="J9" s="202"/>
+      <c r="J9" s="190"/>
       <c r="K9" s="144">
         <v>24</v>
       </c>
@@ -10902,7 +11058,7 @@
       <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="32" t="s">
         <v>186</v>
       </c>
@@ -10920,8 +11076,8 @@
         <v>782</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="203"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="191"/>
       <c r="K10" s="103">
         <v>56</v>
       </c>
@@ -10941,7 +11097,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="32" t="s">
         <v>263</v>
       </c>
@@ -10957,7 +11113,7 @@
         <v>688</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="203"/>
+      <c r="I11" s="191"/>
       <c r="J11" s="117">
         <v>30</v>
       </c>
@@ -10988,10 +11144,10 @@
         <v>409</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="185">
+      <c r="I12" s="197">
         <v>1121</v>
       </c>
-      <c r="J12" s="187">
+      <c r="J12" s="199">
         <v>202</v>
       </c>
       <c r="K12" s="103">
@@ -11019,8 +11175,8 @@
         <v>830</v>
       </c>
       <c r="H13" s="50"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="188"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="200"/>
       <c r="K13" s="104">
         <v>8</v>
       </c>
@@ -11056,7 +11212,7 @@
         <f>358+15</f>
         <v>373</v>
       </c>
-      <c r="J14" s="189"/>
+      <c r="J14" s="201"/>
       <c r="K14" s="104">
         <v>24</v>
       </c>
@@ -11106,13 +11262,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="181">
+      <c r="A16" s="192">
         <v>8.31</v>
       </c>
       <c r="B16" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="205" t="s">
         <v>323</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -11141,9 +11297,9 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="193"/>
-      <c r="C17" s="195"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="4" t="s">
         <v>324</v>
       </c>
@@ -11170,7 +11326,7 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="181">
+      <c r="A18" s="192">
         <v>8.31</v>
       </c>
       <c r="B18" s="125" t="s">
@@ -11190,10 +11346,10 @@
         <v>182</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="182">
+      <c r="I18" s="194">
         <v>1183</v>
       </c>
-      <c r="J18" s="190">
+      <c r="J18" s="202">
         <v>76</v>
       </c>
       <c r="K18" s="104">
@@ -11203,7 +11359,7 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="192"/>
       <c r="B19" s="125" t="s">
         <v>341</v>
       </c>
@@ -11221,8 +11377,8 @@
         <v>316</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="191"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="203"/>
       <c r="K19" s="103">
         <v>8</v>
       </c>
@@ -11230,7 +11386,7 @@
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="193" t="s">
         <v>347</v>
       </c>
@@ -11246,8 +11402,8 @@
         <v>375</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="191"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="203"/>
       <c r="K20" s="104">
         <v>24</v>
       </c>
@@ -11255,7 +11411,7 @@
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
+      <c r="A21" s="192"/>
       <c r="B21" s="193"/>
       <c r="C21" s="54" t="s">
         <v>357</v>
@@ -11269,8 +11425,8 @@
         <v>424</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="192"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="204"/>
       <c r="K21" s="103">
         <v>26</v>
       </c>
@@ -11278,7 +11434,7 @@
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="32" t="s">
         <v>321</v>
       </c>
@@ -11294,7 +11450,7 @@
         <v>278</v>
       </c>
       <c r="H22" s="50"/>
-      <c r="I22" s="184"/>
+      <c r="I22" s="196"/>
       <c r="J22" s="140">
         <v>0</v>
       </c>
@@ -11360,7 +11516,7 @@
     <row r="30" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="30">
         <f>SUM(E2:E22)</f>
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G30" s="30">
         <f>SUM(G2:G22)</f>
@@ -11379,31 +11535,26 @@
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="9:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I33" s="144"/>
       <c r="J33" s="144" t="s">
         <v>363</v>
       </c>
       <c r="K33" s="144"/>
     </row>
-    <row r="34" spans="9:11" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I34" s="43"/>
       <c r="J34" s="43" t="s">
         <v>364</v>
       </c>
       <c r="K34" s="43"/>
-    </row>
-    <row r="35" spans="9:11" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M34" s="150" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J8:J10"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="I12:I13"/>
@@ -11413,6 +11564,14 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J8:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -11441,13 +11600,14 @@
     <hyperlink ref="B22" location="订单!A25" display="5252xoioi" xr:uid="{4FA3951D-EB31-44C3-83F0-60A12D7B49B2}"/>
     <hyperlink ref="W7" location="已下单!C14" display="黄色满标渔夫帽" xr:uid="{AAEB0975-08DD-4682-8A57-AE1CCAD31805}"/>
     <hyperlink ref="B14" location="椰奶同款背包!A56" display="BAON" xr:uid="{B4C76819-EBC0-4C84-83D0-8B7A031FC033}"/>
+    <hyperlink ref="M34" r:id="rId1" xr:uid="{E70548A9-2178-4CAD-B3BA-E8CE58363E0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/BY.X BOUTIQUE八月订单.xlsx
+++ b/BY.X BOUTIQUE八月订单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65474A0-4798-4862-A1AD-19711B876490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14FBE1-8FC5-46E0-AFD2-3E66F8744310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
@@ -992,6 +992,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{119E4A0F-43E1-4646-A4AC-ED0F0027A6C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和mishimai耳钉戒指一起发货</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{069D7B45-7E58-47AC-A9DE-B807B527EE29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2696,7 +2748,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="391">
   <si>
     <t>品牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4231,6 +4283,26 @@
   </si>
   <si>
     <t>库存售卖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周笑逸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市长宁区虹桥路977号3号楼2302室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alxs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市津南区双港领世路天津津南开发区普雅花园16号楼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4452,7 +4524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -4955,6 +5027,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4973,7 +5056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5433,6 +5516,18 @@
     <xf numFmtId="178" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5490,6 +5585,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5514,17 +5621,50 @@
     <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5550,50 +5690,14 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6063,7 +6167,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -6091,10 +6195,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6488,10 +6592,10 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155">
+      <c r="A30" s="159">
         <v>8.31</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="161" t="s">
         <v>323</v>
       </c>
       <c r="C30" s="5">
@@ -6522,8 +6626,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="156"/>
-      <c r="B31" s="158"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="5">
         <v>260</v>
       </c>
@@ -6797,10 +6901,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
@@ -6854,10 +6958,10 @@
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155">
+      <c r="A3" s="159">
         <v>7.29</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="167" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6896,8 +7000,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="156"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="2" t="s">
         <v>89</v>
       </c>
@@ -6934,10 +7038,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155">
+      <c r="A5" s="159">
         <v>7.31</v>
       </c>
-      <c r="B5" s="164"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
@@ -6974,8 +7078,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162"/>
-      <c r="B6" s="164"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
@@ -7012,10 +7116,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161">
+      <c r="A7" s="165">
         <v>8.4</v>
       </c>
-      <c r="B7" s="164"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="4" t="s">
         <v>190</v>
       </c>
@@ -7054,8 +7158,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="164"/>
+      <c r="A8" s="165"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
@@ -7095,7 +7199,7 @@
       <c r="A9" s="94">
         <v>8.11</v>
       </c>
-      <c r="B9" s="164"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="4" t="s">
         <v>89</v>
       </c>
@@ -7161,7 +7265,7 @@
       <c r="A13" s="68">
         <v>8.6</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="168" t="s">
         <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7203,7 +7307,7 @@
       <c r="A14" s="68">
         <v>8.9</v>
       </c>
-      <c r="B14" s="164"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
@@ -7243,7 +7347,7 @@
       <c r="A15" s="94">
         <v>8.1</v>
       </c>
-      <c r="B15" s="164"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="4" t="s">
         <v>85</v>
       </c>
@@ -7283,7 +7387,7 @@
       <c r="A16" s="94">
         <v>8.14</v>
       </c>
-      <c r="B16" s="164"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
@@ -7320,10 +7424,10 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="159">
+      <c r="A17" s="163">
         <v>8.2100000000000009</v>
       </c>
-      <c r="B17" s="164"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="4" t="s">
         <v>190</v>
       </c>
@@ -7363,8 +7467,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="160"/>
-      <c r="B18" s="164"/>
+      <c r="A18" s="164"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
@@ -7404,7 +7508,7 @@
       <c r="A19" s="94">
         <v>8.26</v>
       </c>
-      <c r="B19" s="164"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="4" t="s">
         <v>85</v>
       </c>
@@ -7510,10 +7614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7533,10 +7637,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7590,7 +7694,7 @@
       <c r="A3" s="48">
         <v>7.3</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="175" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -7620,10 +7724,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="169">
+      <c r="A4" s="173">
         <v>7.31</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="4" t="s">
         <v>175</v>
       </c>
@@ -7660,8 +7764,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="83" t="s">
         <v>220</v>
       </c>
@@ -7689,10 +7793,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167">
+      <c r="A6" s="171">
         <v>8.4</v>
       </c>
-      <c r="B6" s="171"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="2" t="s">
         <v>198</v>
       </c>
@@ -7729,8 +7833,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="4" t="s">
         <v>175</v>
       </c>
@@ -7767,8 +7871,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="168"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="2" t="s">
         <v>198</v>
       </c>
@@ -7805,8 +7909,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="168"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="4" t="s">
         <v>175</v>
       </c>
@@ -7843,10 +7947,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="169">
+      <c r="A10" s="173">
         <v>8.1</v>
       </c>
-      <c r="B10" s="171"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="85" t="s">
         <v>175</v>
       </c>
@@ -7883,8 +7987,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="170"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="4" t="s">
         <v>175</v>
       </c>
@@ -7921,8 +8025,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="170"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="174"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="85" t="s">
         <v>175</v>
       </c>
@@ -7984,7 +8088,7 @@
       <c r="A16" s="101">
         <v>8.19</v>
       </c>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="169" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -8026,7 +8130,7 @@
       <c r="A17" s="124">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B17" s="166"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="2" t="s">
         <v>198</v>
       </c>
@@ -8066,7 +8170,7 @@
       <c r="A18" s="124">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B18" s="166"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="4" t="s">
         <v>198</v>
       </c>
@@ -8106,7 +8210,7 @@
       <c r="A19" s="136">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B19" s="166"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="85" t="s">
         <v>175</v>
       </c>
@@ -8158,7 +8262,7 @@
       <c r="A22" s="151">
         <v>9.24</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="211" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8194,35 +8298,114 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="153">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B23" s="212"/>
+      <c r="C23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="2">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2">
+        <v>29</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="91" t="s">
+        <v>386</v>
+      </c>
+      <c r="O23" s="91">
+        <v>17721005618</v>
+      </c>
+      <c r="P23" s="155" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="154" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="156">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="B24" s="212"/>
+      <c r="C24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4">
+        <f>F24+10</f>
+        <v>39</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="O24" s="5">
+        <v>17694862880</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q24" s="152" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="D23">
-        <f>SUM(D22)</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f>SUM(F22)</f>
-        <v>29</v>
-      </c>
-      <c r="G23">
-        <f>SUM(G22)</f>
-        <v>39</v>
-      </c>
-      <c r="M23">
-        <f>SUM(M22)</f>
+      <c r="D25">
+        <f>SUM(D22:D24)</f>
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F22:F24)</f>
+        <v>87</v>
+      </c>
+      <c r="G25">
+        <f>SUM(G22:G24)</f>
+        <v>107</v>
+      </c>
+      <c r="M25">
+        <f>SUM(M22:M24)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="213"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13">
@@ -8249,7 +8432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8267,7 +8450,7 @@
     <hyperlink ref="N12" location="Lisa同款发卡!O14" display="陈茜" xr:uid="{82DF5A2F-8973-462F-B837-5067ED2D759C}"/>
     <hyperlink ref="B20" location="已下单!A9" display="已预定 透明*10个" xr:uid="{C07CD3C5-8D31-441D-A6DF-0345C2F4DA36}"/>
     <hyperlink ref="N18" location="订单!N38" display="赵灵菲" xr:uid="{A2187B1D-DBCE-42EF-B8DC-39CD05960ECA}"/>
-    <hyperlink ref="B23" r:id="rId1" display="已预定 透明*10个" xr:uid="{4BD70F4C-02C1-4F1C-9EAF-565B8F74B2E9}"/>
+    <hyperlink ref="B25" r:id="rId1" display="已预定 透明*10个" xr:uid="{4BD70F4C-02C1-4F1C-9EAF-565B8F74B2E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8280,7 +8463,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8300,10 +8483,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8353,10 +8536,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169">
+      <c r="A3" s="173">
         <v>8.31</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="169" t="s">
         <v>346</v>
       </c>
       <c r="C3" s="4"/>
@@ -8393,8 +8576,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="166"/>
+      <c r="A4" s="174"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="85"/>
       <c r="D4" s="85">
         <v>1</v>
@@ -8431,7 +8614,7 @@
       <c r="A5" s="142">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B5" s="166"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>1</v>
@@ -8486,7 +8669,7 @@
       <c r="A12" s="124">
         <v>8.31</v>
       </c>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="169" t="s">
         <v>356</v>
       </c>
       <c r="C12" s="4"/>
@@ -8525,7 +8708,7 @@
       <c r="A13" s="145">
         <v>9.15</v>
       </c>
-      <c r="B13" s="166"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>1</v>
@@ -8563,7 +8746,7 @@
       <c r="A14" s="145">
         <v>9.15</v>
       </c>
-      <c r="B14" s="166"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
         <v>1</v>
@@ -8685,10 +8868,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="154"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="1" t="s">
         <v>229</v>
       </c>
@@ -8732,10 +8915,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169">
+      <c r="A3" s="173">
         <v>7.29</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="185" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8771,8 +8954,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="178"/>
+      <c r="A4" s="174"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
@@ -8806,8 +8989,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
-      <c r="B5" s="178"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
@@ -8841,10 +9024,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159">
+      <c r="A6" s="163">
         <v>7.3</v>
       </c>
-      <c r="B6" s="178"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
@@ -8878,8 +9061,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -8913,8 +9096,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -8948,8 +9131,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
@@ -8983,8 +9166,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="178"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -9018,8 +9201,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
-      <c r="B11" s="178"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
@@ -9053,8 +9236,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="178"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -9088,8 +9271,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="178"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
@@ -9123,8 +9306,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
-      <c r="B14" s="178"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="186"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -9158,8 +9341,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
-      <c r="B15" s="178"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
@@ -9193,8 +9376,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="178"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
@@ -9228,8 +9411,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="160"/>
-      <c r="B17" s="178"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
@@ -9292,7 +9475,7 @@
     </row>
     <row r="19" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:15" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172">
+      <c r="A20" s="180">
         <v>7.3</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -9331,7 +9514,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
+      <c r="A21" s="181"/>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -9365,7 +9548,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="172">
+      <c r="A22" s="180">
         <v>7.31</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9401,7 +9584,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
+      <c r="A23" s="181"/>
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
@@ -9435,7 +9618,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
+      <c r="A24" s="181"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
@@ -9469,7 +9652,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="173"/>
+      <c r="A25" s="181"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -9503,7 +9686,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="174">
+      <c r="A26" s="182">
         <v>8.1</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -9539,7 +9722,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="175"/>
+      <c r="A27" s="183"/>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
@@ -9573,7 +9756,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="175"/>
+      <c r="A28" s="183"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -9607,7 +9790,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="175"/>
+      <c r="A29" s="183"/>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
@@ -9641,7 +9824,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="181">
+      <c r="A30" s="177">
         <v>8.1999999999999993</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -9677,7 +9860,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="183"/>
+      <c r="A31" s="179"/>
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
@@ -9711,7 +9894,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="183"/>
+      <c r="A32" s="179"/>
       <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
@@ -9745,7 +9928,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
+      <c r="A33" s="179"/>
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
@@ -9779,7 +9962,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="181">
+      <c r="A34" s="177">
         <v>8.3000000000000007</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -9815,7 +9998,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="183"/>
+      <c r="A35" s="179"/>
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -9849,7 +10032,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="183"/>
+      <c r="A36" s="179"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
@@ -9883,7 +10066,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
+      <c r="A37" s="179"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
@@ -9917,7 +10100,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="183"/>
+      <c r="A38" s="179"/>
       <c r="C38" s="4" t="s">
         <v>162</v>
       </c>
@@ -9951,7 +10134,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="183"/>
+      <c r="A39" s="179"/>
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
@@ -9985,7 +10168,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="183"/>
+      <c r="A40" s="179"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -10003,7 +10186,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="183"/>
+      <c r="A41" s="179"/>
       <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
@@ -10037,7 +10220,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="181">
+      <c r="A42" s="177">
         <v>8.4</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -10073,7 +10256,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
+      <c r="A43" s="178"/>
       <c r="C43" s="2" t="s">
         <v>211</v>
       </c>
@@ -10180,7 +10363,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="180">
+      <c r="A46" s="176">
         <v>8.1999999999999993</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -10216,7 +10399,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="180"/>
+      <c r="A47" s="176"/>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
@@ -10286,7 +10469,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="169">
+      <c r="A49" s="173">
         <v>8.2200000000000006</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -10322,7 +10505,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="170"/>
+      <c r="A50" s="174"/>
       <c r="C50" s="4" t="s">
         <v>34</v>
       </c>
@@ -10543,11 +10726,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A25"/>
@@ -10555,6 +10733,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18">
@@ -10585,8 +10768,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10700,7 +10883,7 @@
       <c r="I2" s="17">
         <v>1691</v>
       </c>
-      <c r="J2" s="189">
+      <c r="J2" s="208">
         <v>230</v>
       </c>
       <c r="K2" s="104">
@@ -10737,7 +10920,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="184">
+      <c r="A3" s="203">
         <v>8.4</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -10756,13 +10939,13 @@
       <c r="G3" s="4">
         <v>350</v>
       </c>
-      <c r="H3" s="185">
+      <c r="H3" s="204">
         <v>123500</v>
       </c>
-      <c r="I3" s="187">
+      <c r="I3" s="206">
         <v>731</v>
       </c>
-      <c r="J3" s="190"/>
+      <c r="J3" s="209"/>
       <c r="K3" s="103">
         <v>56</v>
       </c>
@@ -10796,7 +10979,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
+      <c r="A4" s="203"/>
       <c r="B4" s="32" t="s">
         <v>186</v>
       </c>
@@ -10813,9 +10996,9 @@
       <c r="G4" s="2">
         <v>782</v>
       </c>
-      <c r="H4" s="186"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="191"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="104">
         <v>48</v>
       </c>
@@ -10891,7 +11074,7 @@
       <c r="A6" s="76">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="200" t="s">
         <v>238</v>
       </c>
       <c r="C6" s="78" t="s">
@@ -10938,7 +11121,7 @@
       <c r="A7" s="107">
         <v>8.23</v>
       </c>
-      <c r="B7" s="193"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="54" t="s">
         <v>284</v>
       </c>
@@ -11008,7 +11191,7 @@
       <c r="I8" s="17">
         <v>3373</v>
       </c>
-      <c r="J8" s="189">
+      <c r="J8" s="208">
         <v>455</v>
       </c>
       <c r="K8" s="104">
@@ -11021,7 +11204,7 @@
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="192">
+      <c r="A9" s="188">
         <v>8.19</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -11041,10 +11224,10 @@
         <v>214</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="189">
+      <c r="I9" s="208">
         <v>1352</v>
       </c>
-      <c r="J9" s="190"/>
+      <c r="J9" s="209"/>
       <c r="K9" s="144">
         <v>24</v>
       </c>
@@ -11058,7 +11241,7 @@
       <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="32" t="s">
         <v>186</v>
       </c>
@@ -11076,8 +11259,8 @@
         <v>782</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="191"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
       <c r="K10" s="103">
         <v>56</v>
       </c>
@@ -11097,7 +11280,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="32" t="s">
         <v>263</v>
       </c>
@@ -11113,7 +11296,7 @@
         <v>688</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="191"/>
+      <c r="I11" s="210"/>
       <c r="J11" s="117">
         <v>30</v>
       </c>
@@ -11144,10 +11327,10 @@
         <v>409</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="197">
+      <c r="I12" s="192">
         <v>1121</v>
       </c>
-      <c r="J12" s="199">
+      <c r="J12" s="194">
         <v>202</v>
       </c>
       <c r="K12" s="103">
@@ -11175,8 +11358,8 @@
         <v>830</v>
       </c>
       <c r="H13" s="50"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="200"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="195"/>
       <c r="K13" s="104">
         <v>8</v>
       </c>
@@ -11212,7 +11395,7 @@
         <f>358+15</f>
         <v>373</v>
       </c>
-      <c r="J14" s="201"/>
+      <c r="J14" s="196"/>
       <c r="K14" s="104">
         <v>24</v>
       </c>
@@ -11262,13 +11445,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="192">
+      <c r="A16" s="188">
         <v>8.31</v>
       </c>
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="205" t="s">
+      <c r="C16" s="201" t="s">
         <v>323</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -11297,9 +11480,9 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="206"/>
+      <c r="A17" s="188"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="4" t="s">
         <v>324</v>
       </c>
@@ -11326,7 +11509,7 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="192">
+      <c r="A18" s="188">
         <v>8.31</v>
       </c>
       <c r="B18" s="125" t="s">
@@ -11346,10 +11529,10 @@
         <v>182</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="194">
+      <c r="I18" s="189">
         <v>1183</v>
       </c>
-      <c r="J18" s="202">
+      <c r="J18" s="197">
         <v>76</v>
       </c>
       <c r="K18" s="104">
@@ -11359,7 +11542,7 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="192"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="125" t="s">
         <v>341</v>
       </c>
@@ -11377,8 +11560,8 @@
         <v>316</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="203"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="198"/>
       <c r="K19" s="103">
         <v>8</v>
       </c>
@@ -11386,8 +11569,8 @@
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="192"/>
-      <c r="B20" s="193" t="s">
+      <c r="A20" s="188"/>
+      <c r="B20" s="200" t="s">
         <v>347</v>
       </c>
       <c r="C20" s="77" t="s">
@@ -11402,8 +11585,8 @@
         <v>375</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="203"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="198"/>
       <c r="K20" s="104">
         <v>24</v>
       </c>
@@ -11411,8 +11594,8 @@
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="192"/>
-      <c r="B21" s="193"/>
+      <c r="A21" s="188"/>
+      <c r="B21" s="200"/>
       <c r="C21" s="54" t="s">
         <v>357</v>
       </c>
@@ -11425,8 +11608,8 @@
         <v>424</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="204"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="199"/>
       <c r="K21" s="103">
         <v>26</v>
       </c>
@@ -11434,7 +11617,7 @@
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="192"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="32" t="s">
         <v>321</v>
       </c>
@@ -11450,7 +11633,7 @@
         <v>278</v>
       </c>
       <c r="H22" s="50"/>
-      <c r="I22" s="196"/>
+      <c r="I22" s="191"/>
       <c r="J22" s="140">
         <v>0</v>
       </c>
@@ -11555,6 +11738,14 @@
     <row r="35" spans="9:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J8:J10"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="I12:I13"/>
@@ -11564,14 +11755,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J8:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/BY.X BOUTIQUE八月订单.xlsx
+++ b/BY.X BOUTIQUE八月订单.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14FBE1-8FC5-46E0-AFD2-3E66F8744310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96E91D-12DC-4CA6-99A3-2BF33D915376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{35E5E20D-E500-4790-A1BA-A13E9D98634E}"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="4" r:id="rId1"/>
     <sheet name="Lisa同款发卡" sheetId="8" r:id="rId2"/>
-    <sheet name="Rosé同款发卡" sheetId="6" r:id="rId3"/>
-    <sheet name="Rosé同款项链" sheetId="9" r:id="rId4"/>
+    <sheet name="Rosé同款项链" sheetId="9" r:id="rId3"/>
+    <sheet name="Rosé同款发卡" sheetId="6" r:id="rId4"/>
     <sheet name="椰奶同款背包" sheetId="7" r:id="rId5"/>
     <sheet name="已下单" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -654,7 +654,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{0936B5C7-6D22-43CE-9475-7B9533C088EF}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{4B799D27-CF5E-4CE7-B0A4-7BB5C40713D8}">
       <text>
         <r>
           <rPr>
@@ -676,11 +676,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-运费10</t>
+1.运费10
+2.返现5</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{453F7B0C-6E65-42E6-9761-4E87804A3D96}">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{B03BF577-C343-4536-8040-6FA7F29B9458}">
       <text>
         <r>
           <rPr>
@@ -702,323 +703,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-运费10</t>
+1.运费10
+2.新品优惠5
+3.顺丰补邮13</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{2A1CB69D-8F87-4714-A3B0-DC02C048E125}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-和LISA发卡一起发货</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{20800FD7-6469-4777-8518-CB38A9A7EF9A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{B4D67CF1-2F6C-4BE2-A6E0-A324A5BB579B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{AD9DA73F-9146-41E1-9491-1E4E4171C99A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{67E52238-6801-45F7-84E2-48DDC0586D4F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{3C2D5E28-1765-4799-9FAF-9107D40B1F37}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-和LISA发卡一起发货</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{0A2A1878-F0D4-422B-B391-72F2AED8ABE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{A8179B2A-3334-4E69-8CE2-8DA9D4D2AF2A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{1E372AB5-E0DD-4750-89E1-62DCE93ADBC7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{14CBFDD8-7FDA-4C8B-97D4-43676912B8FF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{F49C21F2-2651-4BB0-B963-2C966E9DAAFC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-运费10</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{119E4A0F-43E1-4646-A4AC-ED0F0027A6C7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>milly:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-和mishimai耳钉戒指一起发货</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{069D7B45-7E58-47AC-A9DE-B807B527EE29}">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{C1510E62-6774-4937-B189-DA09893ECCC4}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +745,7 @@
     <author>milly</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{4B799D27-CF5E-4CE7-B0A4-7BB5C40713D8}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{0936B5C7-6D22-43CE-9475-7B9533C088EF}">
       <text>
         <r>
           <rPr>
@@ -1076,12 +767,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.运费10
-2.返现5</t>
+运费10</t>
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{B03BF577-C343-4536-8040-6FA7F29B9458}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{453F7B0C-6E65-42E6-9761-4E87804A3D96}">
       <text>
         <r>
           <rPr>
@@ -1103,13 +793,324 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.运费10
-2.新品优惠5
-3.顺丰补邮13</t>
+运费10</t>
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{C1510E62-6774-4937-B189-DA09893ECCC4}">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{2A1CB69D-8F87-4714-A3B0-DC02C048E125}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和LISA发卡一起发货</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{20800FD7-6469-4777-8518-CB38A9A7EF9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{B4D67CF1-2F6C-4BE2-A6E0-A324A5BB579B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{AD9DA73F-9146-41E1-9491-1E4E4171C99A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{67E52238-6801-45F7-84E2-48DDC0586D4F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{3C2D5E28-1765-4799-9FAF-9107D40B1F37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和LISA发卡一起发货</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{0A2A1878-F0D4-422B-B391-72F2AED8ABE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{A8179B2A-3334-4E69-8CE2-8DA9D4D2AF2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{1E372AB5-E0DD-4750-89E1-62DCE93ADBC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{14CBFDD8-7FDA-4C8B-97D4-43676912B8FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{F49C21F2-2651-4BB0-B963-2C966E9DAAFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运费10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{119E4A0F-43E1-4646-A4AC-ED0F0027A6C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>milly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和mishimai耳钉戒指一起发货
+记录在9月订单中</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{069D7B45-7E58-47AC-A9DE-B807B527EE29}">
       <text>
         <r>
           <rPr>
@@ -5528,6 +5529,9 @@
     <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5564,27 +5568,57 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="3" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5597,33 +5631,36 @@
     <xf numFmtId="180" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5657,47 +5694,11 @@
     <xf numFmtId="3" fontId="13" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6195,10 +6196,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="158"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6592,10 +6593,10 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159">
+      <c r="A30" s="160">
         <v>8.31</v>
       </c>
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="162" t="s">
         <v>323</v>
       </c>
       <c r="C30" s="5">
@@ -6626,8 +6627,8 @@
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="162"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="5">
         <v>260</v>
       </c>
@@ -6880,8 +6881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4099D171-81AE-4A14-95F3-993B63CF8C32}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6901,10 +6902,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="158"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
@@ -6958,10 +6959,10 @@
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="159">
+      <c r="A3" s="160">
         <v>7.29</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="168" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -7000,8 +7001,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="160"/>
-      <c r="B4" s="168"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="2" t="s">
         <v>89</v>
       </c>
@@ -7038,10 +7039,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="159">
+      <c r="A5" s="160">
         <v>7.31</v>
       </c>
-      <c r="B5" s="168"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
@@ -7078,8 +7079,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166"/>
-      <c r="B6" s="168"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
@@ -7116,10 +7117,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="165">
+      <c r="A7" s="166">
         <v>8.4</v>
       </c>
-      <c r="B7" s="168"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="4" t="s">
         <v>190</v>
       </c>
@@ -7158,8 +7159,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165"/>
-      <c r="B8" s="168"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="169"/>
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
@@ -7199,7 +7200,7 @@
       <c r="A9" s="94">
         <v>8.11</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="4" t="s">
         <v>89</v>
       </c>
@@ -7265,7 +7266,7 @@
       <c r="A13" s="68">
         <v>8.6</v>
       </c>
-      <c r="B13" s="168" t="s">
+      <c r="B13" s="169" t="s">
         <v>255</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7307,7 +7308,7 @@
       <c r="A14" s="68">
         <v>8.9</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
@@ -7347,7 +7348,7 @@
       <c r="A15" s="94">
         <v>8.1</v>
       </c>
-      <c r="B15" s="168"/>
+      <c r="B15" s="169"/>
       <c r="C15" s="4" t="s">
         <v>85</v>
       </c>
@@ -7387,7 +7388,7 @@
       <c r="A16" s="94">
         <v>8.14</v>
       </c>
-      <c r="B16" s="168"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="2" t="s">
         <v>89</v>
       </c>
@@ -7424,10 +7425,10 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="163">
+      <c r="A17" s="164">
         <v>8.2100000000000009</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="4" t="s">
         <v>190</v>
       </c>
@@ -7467,8 +7468,8 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="168"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
@@ -7508,7 +7509,7 @@
       <c r="A19" s="94">
         <v>8.26</v>
       </c>
-      <c r="B19" s="168"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="4" t="s">
         <v>85</v>
       </c>
@@ -7613,11 +7614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
-  <dimension ref="A1:Q26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51601B0-3712-47C2-85B5-C075AE00B9D9}">
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7637,10 +7638,393 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="158"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="170">
+        <v>8.31</v>
+      </c>
+      <c r="B3" s="172" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4">
+        <v>119</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3+10-5</f>
+        <v>124</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="102">
+        <v>8</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="O3" s="5">
+        <v>18291973548</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="171"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85">
+        <v>1</v>
+      </c>
+      <c r="E4" s="86"/>
+      <c r="F4" s="85">
+        <v>119</v>
+      </c>
+      <c r="G4" s="85">
+        <v>119</v>
+      </c>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85">
+        <v>8</v>
+      </c>
+      <c r="N4" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="91">
+        <v>15828012502</v>
+      </c>
+      <c r="P4" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q4" s="93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="142">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B5" s="173"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4">
+        <v>132</v>
+      </c>
+      <c r="G5" s="4">
+        <v>132</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="102">
+        <v>8</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="O5" s="95">
+        <v>13599032768</v>
+      </c>
+      <c r="P5" s="96" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q5" s="97" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D3:D5)</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>SUM(G3:G5)</f>
+        <v>375</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M3:M5)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="124">
+        <v>8.31</v>
+      </c>
+      <c r="B12" s="172" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4">
+        <v>132</v>
+      </c>
+      <c r="G12" s="4">
+        <v>132</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="102">
+        <v>0</v>
+      </c>
+      <c r="N12" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="O12" s="95">
+        <v>15828012502</v>
+      </c>
+      <c r="P12" s="96" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q12" s="97" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145">
+        <v>9.15</v>
+      </c>
+      <c r="B13" s="173"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2">
+        <v>132</v>
+      </c>
+      <c r="G13" s="2">
+        <f>132+10-5+13</f>
+        <v>150</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="85">
+        <v>18</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="O13" s="91">
+        <v>13407100820</v>
+      </c>
+      <c r="P13" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="93" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="145">
+        <v>9.15</v>
+      </c>
+      <c r="B14" s="173"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4">
+        <v>132</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14+10</f>
+        <v>142</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="102">
+        <v>8</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="O14" s="95">
+        <v>18605062932</v>
+      </c>
+      <c r="P14" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q14" s="97" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G12:G14)</f>
+        <v>424</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M12:M14)</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="N4" location="Rosé同款项链!N8" display="干骁钰" xr:uid="{55974525-B206-4FBB-8811-E76D7FE29706}"/>
+    <hyperlink ref="N12" location="Rosé同款项链!N4" display="干骁钰" xr:uid="{FBAC49F0-DDA3-471B-8994-35C84BDF62D1}"/>
+    <hyperlink ref="B6" location="已下单!A18" display="已预定 *3" xr:uid="{F6262A40-08F4-4F0E-B1F8-C44828E2B136}"/>
+    <hyperlink ref="B15" location="已下单!A18" display="已预定 *3" xr:uid="{2277892F-94C8-4F21-890A-512C8D538A84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DD397E-680D-4FE0-893E-18A6D5ADD223}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="159"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7694,7 +8078,7 @@
       <c r="A3" s="48">
         <v>7.3</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="178" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -7724,10 +8108,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173">
+      <c r="A4" s="170">
         <v>7.31</v>
       </c>
-      <c r="B4" s="175"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="4" t="s">
         <v>175</v>
       </c>
@@ -7764,8 +8148,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
-      <c r="B5" s="175"/>
+      <c r="A5" s="171"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="83" t="s">
         <v>220</v>
       </c>
@@ -7793,10 +8177,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="171">
+      <c r="A6" s="176">
         <v>8.4</v>
       </c>
-      <c r="B6" s="175"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="2" t="s">
         <v>198</v>
       </c>
@@ -7833,8 +8217,8 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="4" t="s">
         <v>175</v>
       </c>
@@ -7871,8 +8255,8 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
-      <c r="B8" s="175"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="2" t="s">
         <v>198</v>
       </c>
@@ -7909,8 +8293,8 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="175"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="4" t="s">
         <v>175</v>
       </c>
@@ -7947,10 +8331,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173">
+      <c r="A10" s="170">
         <v>8.1</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="85" t="s">
         <v>175</v>
       </c>
@@ -7987,8 +8371,8 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="174"/>
-      <c r="B11" s="175"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="4" t="s">
         <v>175</v>
       </c>
@@ -8025,8 +8409,8 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="85" t="s">
         <v>175</v>
       </c>
@@ -8088,7 +8472,7 @@
       <c r="A16" s="101">
         <v>8.19</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="172" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -8130,7 +8514,7 @@
       <c r="A17" s="124">
         <v>8.2799999999999994</v>
       </c>
-      <c r="B17" s="170"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="2" t="s">
         <v>198</v>
       </c>
@@ -8170,7 +8554,7 @@
       <c r="A18" s="124">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B18" s="170"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="4" t="s">
         <v>198</v>
       </c>
@@ -8210,7 +8594,7 @@
       <c r="A19" s="136">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B19" s="170"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="85" t="s">
         <v>175</v>
       </c>
@@ -8262,7 +8646,7 @@
       <c r="A22" s="151">
         <v>9.24</v>
       </c>
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="174" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8302,7 +8686,7 @@
       <c r="A23" s="153">
         <v>10.199999999999999</v>
       </c>
-      <c r="B23" s="212"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="2" t="s">
         <v>175</v>
       </c>
@@ -8339,7 +8723,7 @@
       <c r="A24" s="156">
         <v>10.119999999999999</v>
       </c>
-      <c r="B24" s="212"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="4" t="s">
         <v>175</v>
       </c>
@@ -8381,31 +8765,19 @@
         <f>SUM(D22:D24)</f>
         <v>3</v>
       </c>
-      <c r="F25">
-        <f>SUM(F22:F24)</f>
-        <v>87</v>
-      </c>
-      <c r="G25">
-        <f>SUM(G22:G24)</f>
-        <v>107</v>
-      </c>
-      <c r="M25">
-        <f>SUM(M22:M24)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P26" s="213"/>
+      <c r="P26" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B13">
@@ -8458,389 +8830,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51601B0-3712-47C2-85B5-C075AE00B9D9}">
-  <dimension ref="A1:Q15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="74.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="157" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173">
-        <v>8.31</v>
-      </c>
-      <c r="B3" s="169" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4">
-        <v>119</v>
-      </c>
-      <c r="G3" s="4">
-        <f>F3+10-5</f>
-        <v>124</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="102">
-        <v>8</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="O3" s="5">
-        <v>18291973548</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85">
-        <v>1</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85">
-        <v>119</v>
-      </c>
-      <c r="G4" s="85">
-        <v>119</v>
-      </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85">
-        <v>8</v>
-      </c>
-      <c r="N4" s="99" t="s">
-        <v>352</v>
-      </c>
-      <c r="O4" s="91">
-        <v>15828012502</v>
-      </c>
-      <c r="P4" s="92" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="142">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4">
-        <v>132</v>
-      </c>
-      <c r="G5" s="4">
-        <v>132</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="102">
-        <v>8</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="O5" s="95">
-        <v>13599032768</v>
-      </c>
-      <c r="P5" s="96" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q5" s="97" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6">
-        <f>SUM(D3:D5)</f>
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>SUM(G3:G5)</f>
-        <v>375</v>
-      </c>
-      <c r="M6">
-        <f>SUM(M3:M5)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124">
-        <v>8.31</v>
-      </c>
-      <c r="B12" s="169" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4">
-        <v>132</v>
-      </c>
-      <c r="G12" s="4">
-        <v>132</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="102">
-        <v>0</v>
-      </c>
-      <c r="N12" s="64" t="s">
-        <v>352</v>
-      </c>
-      <c r="O12" s="95">
-        <v>15828012502</v>
-      </c>
-      <c r="P12" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q12" s="97" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145">
-        <v>9.15</v>
-      </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="2">
-        <v>132</v>
-      </c>
-      <c r="G13" s="2">
-        <f>132+10-5+13</f>
-        <v>150</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="85">
-        <v>18</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="O13" s="91">
-        <v>13407100820</v>
-      </c>
-      <c r="P13" s="92" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q13" s="93" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="145">
-        <v>9.15</v>
-      </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4">
-        <v>132</v>
-      </c>
-      <c r="G14" s="4">
-        <f>F14+10</f>
-        <v>142</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="102">
-        <v>8</v>
-      </c>
-      <c r="N14" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="O14" s="95">
-        <v>18605062932</v>
-      </c>
-      <c r="P14" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q14" s="97" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D12:D14)</f>
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f>SUM(G12:G14)</f>
-        <v>424</v>
-      </c>
-      <c r="M15">
-        <f>SUM(M12:M14)</f>
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B12:B14"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="N4" location="Rosé同款项链!N8" display="干骁钰" xr:uid="{55974525-B206-4FBB-8811-E76D7FE29706}"/>
-    <hyperlink ref="N12" location="Rosé同款项链!N4" display="干骁钰" xr:uid="{FBAC49F0-DDA3-471B-8994-35C84BDF62D1}"/>
-    <hyperlink ref="B6" location="已下单!A18" display="已预定 *3" xr:uid="{F6262A40-08F4-4F0E-B1F8-C44828E2B136}"/>
-    <hyperlink ref="B15" location="已下单!A18" display="已预定 *3" xr:uid="{2277892F-94C8-4F21-890A-512C8D538A84}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34751E57-0EB3-4715-9C58-0F10C3B53ADC}">
   <dimension ref="A1:P59"/>
@@ -8868,10 +8857,10 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="158"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="1" t="s">
         <v>229</v>
       </c>
@@ -8915,10 +8904,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="173">
+      <c r="A3" s="170">
         <v>7.29</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="184" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8954,8 +8943,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
-      <c r="B4" s="186"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
@@ -8989,8 +8978,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
-      <c r="B5" s="186"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
@@ -9024,10 +9013,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="163">
+      <c r="A6" s="164">
         <v>7.3</v>
       </c>
-      <c r="B6" s="186"/>
+      <c r="B6" s="185"/>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
@@ -9061,8 +9050,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="187"/>
-      <c r="B7" s="186"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -9096,8 +9085,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="185"/>
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
@@ -9131,8 +9120,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="185"/>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
@@ -9166,8 +9155,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="185"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -9201,8 +9190,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="187"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="185"/>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
@@ -9236,8 +9225,8 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="187"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
@@ -9271,8 +9260,8 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="185"/>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
@@ -9306,8 +9295,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="185"/>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
@@ -9341,8 +9330,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="187"/>
-      <c r="B15" s="186"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="185"/>
       <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
@@ -9376,8 +9365,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="185"/>
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
@@ -9411,8 +9400,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="165"/>
+      <c r="B17" s="185"/>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
@@ -9475,7 +9464,7 @@
     </row>
     <row r="19" spans="1:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:15" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="180">
+      <c r="A20" s="179">
         <v>7.3</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -9514,7 +9503,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
+      <c r="A21" s="180"/>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -9548,7 +9537,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="180">
+      <c r="A22" s="179">
         <v>7.31</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -9584,7 +9573,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
+      <c r="A23" s="180"/>
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
@@ -9618,7 +9607,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="181"/>
+      <c r="A24" s="180"/>
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
@@ -9652,7 +9641,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="181"/>
+      <c r="A25" s="180"/>
       <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
@@ -9686,7 +9675,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="182">
+      <c r="A26" s="181">
         <v>8.1</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -9722,7 +9711,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
+      <c r="A27" s="182"/>
       <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
@@ -9756,7 +9745,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="183"/>
+      <c r="A28" s="182"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -9790,7 +9779,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="183"/>
+      <c r="A29" s="182"/>
       <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
@@ -9824,7 +9813,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="177">
+      <c r="A30" s="188">
         <v>8.1999999999999993</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -9860,7 +9849,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
+      <c r="A31" s="190"/>
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
@@ -9894,7 +9883,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="179"/>
+      <c r="A32" s="190"/>
       <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
@@ -9928,7 +9917,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="179"/>
+      <c r="A33" s="190"/>
       <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
@@ -9962,7 +9951,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="177">
+      <c r="A34" s="188">
         <v>8.3000000000000007</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -9998,7 +9987,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
+      <c r="A35" s="190"/>
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -10032,7 +10021,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
+      <c r="A36" s="190"/>
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
@@ -10066,7 +10055,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="179"/>
+      <c r="A37" s="190"/>
       <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
@@ -10100,7 +10089,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="179"/>
+      <c r="A38" s="190"/>
       <c r="C38" s="4" t="s">
         <v>162</v>
       </c>
@@ -10134,7 +10123,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="179"/>
+      <c r="A39" s="190"/>
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
@@ -10168,7 +10157,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="179"/>
+      <c r="A40" s="190"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -10186,7 +10175,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="179"/>
+      <c r="A41" s="190"/>
       <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
@@ -10220,7 +10209,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="177">
+      <c r="A42" s="188">
         <v>8.4</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -10256,7 +10245,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="178"/>
+      <c r="A43" s="189"/>
       <c r="C43" s="2" t="s">
         <v>211</v>
       </c>
@@ -10363,7 +10352,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="176">
+      <c r="A46" s="187">
         <v>8.1999999999999993</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -10399,7 +10388,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="176"/>
+      <c r="A47" s="187"/>
       <c r="C47" s="2" t="s">
         <v>34</v>
       </c>
@@ -10469,7 +10458,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="173">
+      <c r="A49" s="170">
         <v>8.2200000000000006</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -10505,7 +10494,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="174"/>
+      <c r="A50" s="171"/>
       <c r="C50" s="4" t="s">
         <v>34</v>
       </c>
@@ -10726,6 +10715,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A25"/>
@@ -10733,11 +10727,6 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="A6:A17"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18">
@@ -10768,8 +10757,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10883,7 +10872,7 @@
       <c r="I2" s="17">
         <v>1691</v>
       </c>
-      <c r="J2" s="208">
+      <c r="J2" s="196">
         <v>230</v>
       </c>
       <c r="K2" s="104">
@@ -10920,7 +10909,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="203">
+      <c r="A3" s="191">
         <v>8.4</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -10939,13 +10928,13 @@
       <c r="G3" s="4">
         <v>350</v>
       </c>
-      <c r="H3" s="204">
+      <c r="H3" s="192">
         <v>123500</v>
       </c>
-      <c r="I3" s="206">
+      <c r="I3" s="194">
         <v>731</v>
       </c>
-      <c r="J3" s="209"/>
+      <c r="J3" s="197"/>
       <c r="K3" s="103">
         <v>56</v>
       </c>
@@ -10979,7 +10968,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="203"/>
+      <c r="A4" s="191"/>
       <c r="B4" s="32" t="s">
         <v>186</v>
       </c>
@@ -10996,9 +10985,9 @@
       <c r="G4" s="2">
         <v>782</v>
       </c>
-      <c r="H4" s="205"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="210"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="198"/>
       <c r="K4" s="104">
         <v>48</v>
       </c>
@@ -11191,7 +11180,7 @@
       <c r="I8" s="17">
         <v>3373</v>
       </c>
-      <c r="J8" s="208">
+      <c r="J8" s="196">
         <v>455</v>
       </c>
       <c r="K8" s="104">
@@ -11204,7 +11193,7 @@
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188">
+      <c r="A9" s="199">
         <v>8.19</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -11224,10 +11213,10 @@
         <v>214</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="208">
+      <c r="I9" s="196">
         <v>1352</v>
       </c>
-      <c r="J9" s="209"/>
+      <c r="J9" s="197"/>
       <c r="K9" s="144">
         <v>24</v>
       </c>
@@ -11241,7 +11230,7 @@
       <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="32" t="s">
         <v>186</v>
       </c>
@@ -11259,8 +11248,8 @@
         <v>782</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="198"/>
       <c r="K10" s="103">
         <v>56</v>
       </c>
@@ -11280,7 +11269,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="32" t="s">
         <v>263</v>
       </c>
@@ -11296,7 +11285,7 @@
         <v>688</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="210"/>
+      <c r="I11" s="198"/>
       <c r="J11" s="117">
         <v>30</v>
       </c>
@@ -11327,10 +11316,10 @@
         <v>409</v>
       </c>
       <c r="H12" s="25"/>
-      <c r="I12" s="192">
+      <c r="I12" s="204">
         <v>1121</v>
       </c>
-      <c r="J12" s="194">
+      <c r="J12" s="206">
         <v>202</v>
       </c>
       <c r="K12" s="103">
@@ -11358,8 +11347,8 @@
         <v>830</v>
       </c>
       <c r="H13" s="50"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="195"/>
+      <c r="I13" s="205"/>
+      <c r="J13" s="207"/>
       <c r="K13" s="104">
         <v>8</v>
       </c>
@@ -11395,7 +11384,7 @@
         <f>358+15</f>
         <v>373</v>
       </c>
-      <c r="J14" s="196"/>
+      <c r="J14" s="208"/>
       <c r="K14" s="104">
         <v>24</v>
       </c>
@@ -11445,13 +11434,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="188">
+      <c r="A16" s="199">
         <v>8.31</v>
       </c>
       <c r="B16" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="212" t="s">
         <v>323</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -11480,9 +11469,9 @@
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="188"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="200"/>
-      <c r="C17" s="202"/>
+      <c r="C17" s="213"/>
       <c r="D17" s="4" t="s">
         <v>324</v>
       </c>
@@ -11509,7 +11498,7 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="188">
+      <c r="A18" s="199">
         <v>8.31</v>
       </c>
       <c r="B18" s="125" t="s">
@@ -11529,10 +11518,10 @@
         <v>182</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="189">
+      <c r="I18" s="201">
         <v>1183</v>
       </c>
-      <c r="J18" s="197">
+      <c r="J18" s="209">
         <v>76</v>
       </c>
       <c r="K18" s="104">
@@ -11542,7 +11531,7 @@
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="188"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="125" t="s">
         <v>341</v>
       </c>
@@ -11560,8 +11549,8 @@
         <v>316</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="198"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="210"/>
       <c r="K19" s="103">
         <v>8</v>
       </c>
@@ -11569,7 +11558,7 @@
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="200" t="s">
         <v>347</v>
       </c>
@@ -11585,8 +11574,8 @@
         <v>375</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="198"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="210"/>
       <c r="K20" s="104">
         <v>24</v>
       </c>
@@ -11594,7 +11583,7 @@
       <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="188"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="200"/>
       <c r="C21" s="54" t="s">
         <v>357</v>
@@ -11608,8 +11597,8 @@
         <v>424</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="199"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="211"/>
       <c r="K21" s="103">
         <v>26</v>
       </c>
@@ -11617,7 +11606,7 @@
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="32" t="s">
         <v>321</v>
       </c>
@@ -11633,7 +11622,7 @@
         <v>278</v>
       </c>
       <c r="H22" s="50"/>
-      <c r="I22" s="191"/>
+      <c r="I22" s="203"/>
       <c r="J22" s="140">
         <v>0</v>
       </c>
@@ -11738,14 +11727,6 @@
     <row r="35" spans="9:13" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J8:J10"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="I18:I22"/>
     <mergeCell ref="I12:I13"/>
@@ -11755,6 +11736,14 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J8:J10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
